--- a/biology/Zoologie/Akela_scaloneta/Akela_scaloneta.xlsx
+++ b/biology/Zoologie/Akela_scaloneta/Akela_scaloneta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Akela scaloneta est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Akela scaloneta est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la province de Misiones en Argentine[1],[2]. Elle se rencontre vers Candelaria.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la province de Misiones en Argentine,. Elle se rencontre vers Candelaria.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 1,27 mm de long sur 0,94 mm et l'abdomen 1,25 mm de long et la carapace de la femelle paratype mesure 1,37 mm de long sur 1,04 mm et l'abdomen 2,00 mm de long[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 1,27 mm de long sur 0,94 mm et l'abdomen 1,25 mm de long et la carapace de la femelle paratype mesure 1,37 mm de long sur 1,04 mm et l'abdomen 2,00 mm de long.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Rubio, Baigorria et Stolar en 2023.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Rubio, Baigorria &amp; Stolar, 2023 : « Unveiling some unknown jumping spiders (Araneae: Salticidae) from Argentina: descriptions of seven new species. » Peckhamia, vol. 294.1, p. 1-22.</t>
         </is>
